--- a/biology/Zoologie/Camissecla/Camissecla.xlsx
+++ b/biology/Zoologie/Camissecla/Camissecla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camissecla est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Camissecla a été créé par Robert K. Robbins (d) et Marcelo Duarte (d) en 2004.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Camissecla camissa (Hewitson, 1870) présent au Guatemala et en Équateur
 Camissecla charichlorus (Butler &amp; Druce, 1872) présent au Costa Rica, au Nicaragua et en Colombie
@@ -555,7 +571,7 @@
 Camissecla simasca (Draudt, 1920) présent en Colombie
 Camissecla verbenaca (Druce, 1907)  présent au Brésil
 Camissecla vespasianus (Butler &amp; Druce, 1872) présent au Costa Rica et au Guatemala
-Camissecla vesper (Druce, 1909) présent en Colombie, au Pérou et en Guyane[2],[3].</t>
+Camissecla vesper (Druce, 1909) présent en Colombie, au Pérou et en Guyane,.</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Camissecla sont présentes en Amérique centrale et Amérique du Sud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Camissecla sont présentes en Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
